--- a/simpo_resource/source/_static/template_file/Solution.xlsx
+++ b/simpo_resource/source/_static/template_file/Solution.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20465" windowHeight="8530" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="22512" windowHeight="9852" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion" sheetId="24" r:id="rId1"/>
     <sheet name="Variable" sheetId="23" r:id="rId2"/>
     <sheet name="Weight" sheetId="22" r:id="rId3"/>
-    <sheet name="Target" sheetId="25" r:id="rId4"/>
+    <sheet name="Activation" sheetId="27" r:id="rId4"/>
+    <sheet name="Target" sheetId="25" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>S_O2</t>
   </si>
@@ -135,6 +136,15 @@
   </si>
   <si>
     <t>Q_w</t>
+  </si>
+  <si>
+    <t>Hydrolysis of X_S by X_OHO</t>
+  </si>
+  <si>
+    <t>Aerobic growth of X_OHO</t>
+  </si>
+  <si>
+    <t>decay of X_OHO</t>
   </si>
   <si>
     <t>Symbol</t>
@@ -160,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -217,7 +227,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,25 +270,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,72 +367,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,35 +379,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -427,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,139 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +481,144 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -628,25 +638,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,17 +661,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +694,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,17 +716,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,199 +735,208 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1118,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1129,9 +1142,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1155,7 +1168,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1208,7 +1221,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1233,7 +1246,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1251,18 +1264,18 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.0083333333333" style="7" customWidth="true"/>
-    <col min="2" max="2" width="12.2" style="7" customWidth="true"/>
-    <col min="3" max="3" width="9.8" style="7" customWidth="true"/>
-    <col min="4" max="4" width="10" style="7" customWidth="true"/>
-    <col min="5" max="5" width="11.8083333333333" style="7" customWidth="true"/>
-    <col min="6" max="6" width="12.5083333333333" style="7" customWidth="true"/>
-    <col min="7" max="7" width="10.6083333333333" style="7" customWidth="true"/>
+    <col min="1" max="1" width="18.0083333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.2" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.8" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.8083333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5083333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.6083333333333" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.35" spans="1:7">
+    <row r="1" ht="23.4" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1283,119 +1296,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="22.35" spans="1:7">
+    <row r="2" ht="23.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" ht="22.35" spans="1:7">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" ht="23.4" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" ht="22.35" spans="1:7">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" ht="23.4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" ht="22.35" spans="1:7">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" ht="23.4" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" ht="22.35" spans="1:7">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" ht="23.4" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" ht="22.35" spans="1:7">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" ht="23.4" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="22.35" spans="1:7">
+    <row r="8" ht="23.4" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="22.35" spans="1:7">
+    <row r="9" ht="23.4" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1411,26 +1424,26 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.9583333333333" customWidth="true"/>
-    <col min="2" max="2" width="22.9666666666667" customWidth="true"/>
-    <col min="3" max="3" width="16.5" customWidth="true"/>
-    <col min="4" max="4" width="18.4416666666667" customWidth="true"/>
-    <col min="5" max="5" width="21.3166666666667" customWidth="true"/>
-    <col min="6" max="6" width="22.7" customWidth="true"/>
-    <col min="7" max="7" width="17.65" customWidth="true"/>
-    <col min="8" max="8" width="18.4166666666667" customWidth="true"/>
+    <col min="1" max="1" width="24.9583333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.9666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.3166666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.7" customWidth="1"/>
+    <col min="7" max="7" width="17.65" customWidth="1"/>
+    <col min="8" max="8" width="18.4166666666667" customWidth="1"/>
     <col min="9" max="1018" width="14.6833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.35" spans="1:8">
+    <row r="1" ht="23.4" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1456,1023 +1469,1023 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="22.35" spans="1:8">
+    <row r="2" ht="23.4" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
         <f>0.08*1.03^5</f>
         <v>0.092741925944</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <f>0.08*1.03^5</f>
         <v>0.092741925944</v>
       </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="22.35" spans="1:8">
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="23.4" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
         <f>0.67*1.03^5</f>
         <v>0.776713629781</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <f>0.67*1.03^5</f>
         <v>0.776713629781</v>
       </c>
-      <c r="F3" s="13">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="F3" s="14">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16">
         <v>0.46</v>
       </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="22.35" spans="1:8">
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="23.4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
         <f>0.62*1.03^5</f>
         <v>0.718749926066</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <f>0.62*1.03^5</f>
         <v>0.718749926066</v>
       </c>
-      <c r="F4" s="13">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
         <v>0</v>
       </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="22.35" spans="1:8">
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="23.4" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
         <f>0.03*1.03^5</f>
         <v>0.034778222229</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <f>0.03*1.03^5</f>
         <v>0.034778222229</v>
       </c>
-      <c r="F5" s="13">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="22.35" spans="1:8">
+    <row r="6" ht="23.4" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
         <f>20*1.03^5</f>
         <v>23.185481486</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <f>20*1.03^5</f>
         <v>23.185481486</v>
       </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
         <v>10</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="22.35" spans="1:8">
+    <row r="7" ht="23.4" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <f>0.2*1.03^5</f>
         <v>0.23185481486</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <f>0.2*1.03^5</f>
         <v>0.23185481486</v>
       </c>
-      <c r="F7" s="13">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="F7" s="14">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="22.35" spans="1:8">
+    <row r="8" ht="23.4" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <f>6*1.03^5</f>
         <v>6.9556444458</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <f>6*1.03^5</f>
         <v>6.9556444458</v>
       </c>
-      <c r="F8" s="13">
-        <v>2</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="16">
         <v>13.2</v>
       </c>
     </row>
-    <row r="9" ht="22.35" spans="1:8">
+    <row r="9" ht="23.4" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <f>2*1.03^5</f>
         <v>2.3185481486</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <f>2*1.03^5</f>
         <v>2.3185481486</v>
       </c>
-      <c r="F9" s="13">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="22.35" spans="1:8">
+    <row r="10" ht="23.4" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <f>0.4*1.03^5</f>
         <v>0.46370962972</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <f>0.4*1.03^5</f>
         <v>0.46370962972</v>
       </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="22.35" spans="1:8">
+    <row r="11" ht="23.4" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="22.35" spans="1:8">
+    <row r="12" ht="23.4" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>0.8</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13">
         <v>0.8</v>
       </c>
-      <c r="F12" s="13">
-        <v>2</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17">
         <v>0.1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" ht="22.35" spans="1:8">
+    <row r="13" ht="23.4" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>20</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13">
         <v>20</v>
       </c>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" ht="22.35" spans="1:8">
+    <row r="14" ht="23.4" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" ht="22.35" spans="1:8">
+    <row r="15" ht="23.4" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="16" ht="22.35" spans="1:8">
+    <row r="16" ht="23.4" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>200</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13">
         <v>200</v>
       </c>
-      <c r="F16" s="13">
-        <v>2</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
         <v>250</v>
       </c>
     </row>
-    <row r="17" ht="22.35" spans="1:8">
+    <row r="17" ht="23.4" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="22.35" spans="1:8">
+    <row r="18" ht="23.4" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>0.8</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="13">
         <v>0.8</v>
       </c>
-      <c r="F18" s="13">
-        <v>2</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17">
         <v>0.1</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" ht="22.35" spans="1:8">
+    <row r="19" ht="23.4" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>20</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13">
         <v>20</v>
       </c>
-      <c r="F19" s="13">
-        <v>2</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" ht="22.35" spans="1:8">
+    <row r="20" ht="23.4" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="22.35" spans="1:8">
+    <row r="21" ht="23.4" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="22" ht="22.35" spans="1:8">
+    <row r="22" ht="23.4" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="13">
         <v>200</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13">
         <v>200</v>
       </c>
-      <c r="F22" s="13">
-        <v>2</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
         <v>250</v>
       </c>
     </row>
-    <row r="23" ht="22.35" spans="1:8">
+    <row r="23" ht="23.4" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13">
-        <v>2</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="22.35" spans="1:8">
+    <row r="24" ht="23.4" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <v>0.8</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13">
         <v>0.8</v>
       </c>
-      <c r="F24" s="13">
-        <v>2</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="F24" s="14">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17">
         <v>0.1</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" ht="22.35" spans="1:8">
+    <row r="25" ht="23.4" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="13">
         <v>20</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13">
         <v>20</v>
       </c>
-      <c r="F25" s="13">
-        <v>2</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" ht="22.35" spans="1:8">
+    <row r="26" ht="23.4" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>2</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" ht="22.35" spans="1:8">
+    <row r="27" ht="23.4" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16">
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="28" ht="22.35" spans="1:8">
+    <row r="28" ht="23.4" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>200</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13">
         <v>200</v>
       </c>
-      <c r="F28" s="13">
-        <v>2</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
         <v>250</v>
       </c>
     </row>
-    <row r="29" ht="22.35" spans="1:8">
+    <row r="29" ht="23.4" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>187</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13">
         <v>2000</v>
       </c>
-      <c r="F29" s="13">
-        <v>2</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16">
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="30" ht="22.35" spans="1:8">
+    <row r="30" ht="23.4" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>100</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13">
         <v>100</v>
       </c>
-      <c r="F30" s="13">
-        <v>2</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="F30" s="14">
+        <v>2</v>
+      </c>
+      <c r="G30" s="17">
         <v>0.1</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" ht="22.35" spans="1:8">
+    <row r="31" ht="23.4" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>20</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13">
         <v>20</v>
       </c>
-      <c r="F31" s="13">
-        <v>2</v>
-      </c>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="F31" s="14">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="32" ht="22.35" spans="1:8">
+    <row r="32" ht="23.4" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>80</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13">
         <v>80</v>
       </c>
-      <c r="F32" s="13">
-        <v>2</v>
-      </c>
-      <c r="G32" s="16">
-        <v>1</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="F32" s="14">
+        <v>2</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" ht="22.35" spans="1:8">
+    <row r="33" ht="23.4" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>200</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="13">
         <v>200</v>
       </c>
-      <c r="F33" s="13">
-        <v>2</v>
-      </c>
-      <c r="G33" s="16">
-        <v>1</v>
-      </c>
-      <c r="H33" s="16">
+      <c r="F33" s="14">
+        <v>2</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="34" ht="22.35" spans="1:8">
+    <row r="34" ht="23.4" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="13">
         <v>0</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="D34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="F34" s="13">
-        <v>2</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="F34" s="14">
+        <v>2</v>
+      </c>
+      <c r="G34" s="17">
         <v>0</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="35" ht="22.35" spans="1:8">
+    <row r="35" ht="23.4" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>500</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="D35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="13">
         <v>500</v>
       </c>
-      <c r="F35" s="13">
-        <v>2</v>
-      </c>
-      <c r="G35" s="16">
-        <v>30</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="F35" s="14">
+        <v>2</v>
+      </c>
+      <c r="G35" s="17">
+        <v>30</v>
+      </c>
+      <c r="H35" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="36" ht="22.35" spans="1:8">
+    <row r="36" ht="23.4" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="12">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13">
-        <v>2</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16">
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="37" ht="22.35" spans="1:8">
+    <row r="37" ht="23.4" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16">
+      <c r="C37" s="13">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="38" ht="22.35" spans="1:8">
+    <row r="38" ht="23.4" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="14">
         <v>1000</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="D38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="14">
         <v>1000</v>
       </c>
-      <c r="F38" s="13">
-        <v>2</v>
-      </c>
-      <c r="G38" s="16">
-        <v>1</v>
-      </c>
-      <c r="H38" s="16">
+      <c r="F38" s="14">
+        <v>2</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="39" ht="22.35" spans="1:8">
+    <row r="39" ht="23.4" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="14">
         <v>310</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="13">
+      <c r="D39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="14">
         <v>310</v>
       </c>
-      <c r="F39" s="13">
-        <v>2</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16">
+      <c r="F39" s="14">
+        <v>2</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
         <v>2000</v>
       </c>
     </row>
-    <row r="40" ht="22.35" spans="1:8">
+    <row r="40" ht="23.4" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="14">
         <v>18</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="D40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="14">
         <v>18</v>
       </c>
-      <c r="F40" s="13">
-        <v>2</v>
-      </c>
-      <c r="G40" s="16">
+      <c r="F40" s="14">
+        <v>2</v>
+      </c>
+      <c r="G40" s="17">
         <v>0</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="17">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -2486,18 +2499,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A1" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.8666666666667" customWidth="true"/>
-    <col min="2" max="2" width="14.7583333333333" customWidth="true"/>
-    <col min="3" max="3" width="20.025" customWidth="true"/>
-    <col min="4" max="4" width="23.125" customWidth="true"/>
+    <col min="1" max="1" width="12.8666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.7583333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.025" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="22.35" spans="1:4">
+    <row r="1" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>29</v>
@@ -2509,87 +2522,87 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="22.35" spans="1:4">
+    <row r="2" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="22.35" spans="1:4">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="22.35" spans="1:4">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="22.35" spans="1:4">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="22.35" spans="1:4">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="22.35" spans="1:4">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="23.4" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2602,33 +2615,84 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="14.7583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="1" ht="23.4" spans="1:2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="23.4" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="23.4" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="23.4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17.0833333333333" customWidth="true"/>
-    <col min="2" max="2" width="17.525" customWidth="true"/>
-    <col min="3" max="3" width="13.425" customWidth="true"/>
-    <col min="4" max="4" width="16.6333333333333" customWidth="true"/>
-    <col min="10" max="10" width="12.2333333333333" customWidth="true"/>
+    <col min="1" max="1" width="17.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.525" customWidth="1"/>
+    <col min="3" max="3" width="13.425" customWidth="1"/>
+    <col min="4" max="4" width="16.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.2333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.35" spans="1:10">
+    <row r="1" ht="23.4" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -2649,12 +2713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="22.35" spans="1:10">
+    <row r="2" ht="23.4" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
@@ -2665,12 +2729,12 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" ht="22.35" spans="1:10">
+    <row r="3" ht="23.4" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
